--- a/Simulations/Pre-emptive/DDT - 1000.xlsx
+++ b/Simulations/Pre-emptive/DDT - 1000.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
   <si>
     <t>Strategy</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>IMV</t>
+  </si>
+  <si>
+    <t>AV</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,6 +428,12 @@
       <c r="B2">
         <v>0.2</v>
       </c>
+      <c r="C2">
+        <v>3014</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -433,6 +442,12 @@
       <c r="B3">
         <v>0.4</v>
       </c>
+      <c r="C3">
+        <v>2997</v>
+      </c>
+      <c r="D3">
+        <v>92</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -441,6 +456,12 @@
       <c r="B4">
         <v>0.6</v>
       </c>
+      <c r="C4">
+        <v>2665</v>
+      </c>
+      <c r="D4">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -449,6 +470,12 @@
       <c r="B5">
         <v>0.8</v>
       </c>
+      <c r="C5">
+        <v>2717</v>
+      </c>
+      <c r="D5">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -457,6 +484,12 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>2489</v>
+      </c>
+      <c r="D6">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -465,6 +498,12 @@
       <c r="B7">
         <v>1.2</v>
       </c>
+      <c r="C7">
+        <v>2504</v>
+      </c>
+      <c r="D7">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -473,6 +512,12 @@
       <c r="B8">
         <v>1.4</v>
       </c>
+      <c r="C8">
+        <v>2001</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -481,6 +526,12 @@
       <c r="B9">
         <v>1.6</v>
       </c>
+      <c r="C9">
+        <v>1881</v>
+      </c>
+      <c r="D9">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -489,6 +540,12 @@
       <c r="B10">
         <v>1.8</v>
       </c>
+      <c r="C10">
+        <v>1964</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -497,6 +554,12 @@
       <c r="B11">
         <v>2</v>
       </c>
+      <c r="C11">
+        <v>1995</v>
+      </c>
+      <c r="D11">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -519,6 +582,12 @@
       <c r="B13">
         <v>0.4</v>
       </c>
+      <c r="C13">
+        <v>194</v>
+      </c>
+      <c r="D13">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -527,6 +596,12 @@
       <c r="B14">
         <v>0.6</v>
       </c>
+      <c r="C14">
+        <v>117</v>
+      </c>
+      <c r="D14">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -535,6 +610,12 @@
       <c r="B15">
         <v>0.8</v>
       </c>
+      <c r="C15">
+        <v>92</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -543,125 +624,361 @@
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>76</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>301</v>
+      </c>
+      <c r="D22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>160</v>
+      </c>
+      <c r="D23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>250</v>
+      </c>
+      <c r="D24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>220</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>199</v>
+      </c>
+      <c r="D26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>164</v>
+      </c>
+      <c r="D27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>112</v>
+      </c>
+      <c r="D28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>79</v>
+      </c>
+      <c r="D29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31">
         <v>2</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>0.2</v>
+      </c>
+      <c r="C32">
+        <v>1306</v>
+      </c>
+      <c r="D32">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0.4</v>
+      </c>
+      <c r="C33">
+        <v>1034</v>
+      </c>
+      <c r="D33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>0.6</v>
+      </c>
+      <c r="C34">
+        <v>989</v>
+      </c>
+      <c r="D34">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>0.8</v>
+      </c>
+      <c r="C35">
+        <v>977</v>
+      </c>
+      <c r="D35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>915</v>
+      </c>
+      <c r="D36">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>1.2</v>
+      </c>
+      <c r="C37">
+        <v>942</v>
+      </c>
+      <c r="D37">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1.4</v>
+      </c>
+      <c r="C38">
+        <v>872</v>
+      </c>
+      <c r="D38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>1.6</v>
+      </c>
+      <c r="C39">
+        <v>856</v>
+      </c>
+      <c r="D39">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>1.8</v>
+      </c>
+      <c r="C40">
+        <v>820</v>
+      </c>
+      <c r="D40">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>600</v>
+      </c>
+      <c r="D41">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Simulations/Pre-emptive/DDT - 1000.xlsx
+++ b/Simulations/Pre-emptive/DDT - 1000.xlsx
@@ -386,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
         <v>0.6</v>
       </c>
       <c r="C4">
-        <v>2665</v>
+        <v>2865</v>
       </c>
       <c r="D4">
         <v>91</v>
@@ -471,7 +471,7 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2717</v>
+        <v>2817</v>
       </c>
       <c r="D5">
         <v>91</v>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2489</v>
+        <v>2789</v>
       </c>
       <c r="D6">
         <v>88</v>
@@ -499,7 +499,7 @@
         <v>1.2</v>
       </c>
       <c r="C7">
-        <v>2504</v>
+        <v>2804</v>
       </c>
       <c r="D7">
         <v>86</v>
@@ -513,7 +513,7 @@
         <v>1.4</v>
       </c>
       <c r="C8">
-        <v>2001</v>
+        <v>2764</v>
       </c>
       <c r="D8">
         <v>80</v>
@@ -527,7 +527,7 @@
         <v>1.6</v>
       </c>
       <c r="C9">
-        <v>1881</v>
+        <v>2881</v>
       </c>
       <c r="D9">
         <v>72</v>
@@ -541,7 +541,7 @@
         <v>1.8</v>
       </c>
       <c r="C10">
-        <v>1964</v>
+        <v>2724</v>
       </c>
       <c r="D10">
         <v>75</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1995</v>
+        <v>2795</v>
       </c>
       <c r="D11">
         <v>74</v>
